--- a/Project691_Z. -X. Luo(2011).xlsx
+++ b/Project691_Z. -X. Luo(2011).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48CC387-D659-BC40-BC53-3B101DC41D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DDA2E9-A01E-41F9-9522-920135B48172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{98C1506D-8E3A-DD44-99A1-B855AFD1BFA8}"/>
+    <workbookView xWindow="255" yWindow="2340" windowWidth="15945" windowHeight="18375" xr2:uid="{98C1506D-8E3A-DD44-99A1-B855AFD1BFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Project691" sheetId="1" r:id="rId1"/>
@@ -1540,55 +1540,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>20321</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657C0FC9-26E4-FE6F-335A-C575D2ACA700}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8204200" y="330200"/>
-          <a:ext cx="10891520" cy="6807200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1914,13 +1865,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>444</v>
       </c>
@@ -1931,7 +1882,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -1942,7 +1893,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1904,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1915,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1972,7 +1923,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +1934,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +1945,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +1953,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +1964,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +1975,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +1986,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +1997,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2008,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2019,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +2030,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2038,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2098,7 +2049,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2060,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2071,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2082,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2139,7 +2090,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2098,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2106,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2114,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2125,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2133,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2193,7 +2144,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2201,7 +2152,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2209,7 +2160,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2220,7 +2171,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2231,7 +2182,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2193,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2204,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2215,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2226,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2237,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2297,7 +2248,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2259,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2319,7 +2270,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2330,7 +2281,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2341,7 +2292,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2303,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2363,7 +2314,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2374,7 +2325,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +2336,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2347,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2407,7 +2358,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2415,7 +2366,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2426,7 +2377,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2434,7 +2385,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2445,7 +2396,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2456,7 +2407,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2467,7 +2418,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2478,7 +2429,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2486,7 +2437,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2497,7 +2448,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2508,7 +2459,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2519,7 +2470,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2527,7 +2478,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2538,7 +2489,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>449</v>
       </c>
@@ -2546,7 +2497,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2557,7 +2508,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2565,7 +2516,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2573,7 +2524,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2581,7 +2532,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +2543,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2600,7 +2551,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2611,7 +2562,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2619,7 +2570,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -2630,7 +2581,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -2638,7 +2589,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -2646,7 +2597,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2654,7 +2605,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2662,7 +2613,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2621,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -2681,7 +2632,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -2689,7 +2640,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -2700,7 +2651,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -2711,7 +2662,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2722,7 +2673,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -2733,7 +2684,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -2744,7 +2695,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2706,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -2766,7 +2717,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2774,7 +2725,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2782,7 +2733,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2793,7 +2744,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2801,7 +2752,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2812,7 +2763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2823,7 +2774,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2834,7 +2785,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2842,7 +2793,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -2850,7 +2801,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2861,7 +2812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2872,7 +2823,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2883,7 +2834,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2891,7 +2842,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2902,7 +2853,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2913,7 +2864,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2924,7 +2875,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -2932,7 +2883,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2943,7 +2894,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -2954,7 +2905,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -2965,7 +2916,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -2976,7 +2927,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -2987,7 +2938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -2998,7 +2949,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -3009,7 +2960,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>464</v>
       </c>
@@ -3020,7 +2971,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -3031,7 +2982,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>106</v>
       </c>
@@ -3042,7 +2993,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -3053,7 +3004,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3064,7 +3015,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -3075,7 +3026,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -3086,7 +3037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>111</v>
       </c>
@@ -3094,7 +3045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -3105,7 +3056,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
@@ -3116,7 +3067,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -3124,7 +3075,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -3135,7 +3086,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -3143,7 +3094,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -3154,7 +3105,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -3162,7 +3113,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -3173,7 +3124,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -3184,7 +3135,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -3195,7 +3146,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -3206,7 +3157,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -3217,7 +3168,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>124</v>
       </c>
@@ -3228,7 +3179,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -3236,7 +3187,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>126</v>
       </c>
@@ -3247,7 +3198,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -3258,7 +3209,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -3266,7 +3217,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -3277,7 +3228,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -3288,7 +3239,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>131</v>
       </c>
@@ -3296,7 +3247,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -3307,7 +3258,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -3318,7 +3269,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -3329,7 +3280,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>135</v>
       </c>
@@ -3340,7 +3291,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -3351,7 +3302,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>137</v>
       </c>
@@ -3362,7 +3313,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -3370,7 +3321,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -3378,7 +3329,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>140</v>
       </c>
@@ -3389,7 +3340,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -3400,7 +3351,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -3411,7 +3362,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>143</v>
       </c>
@@ -3422,7 +3373,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -3430,7 +3381,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>145</v>
       </c>
@@ -3441,7 +3392,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -3452,7 +3403,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -3463,7 +3414,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -3474,7 +3425,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -3485,7 +3436,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>150</v>
       </c>
@@ -3496,7 +3447,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>151</v>
       </c>
@@ -3507,7 +3458,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>152</v>
       </c>
@@ -3518,7 +3469,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -3529,7 +3480,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -3540,7 +3491,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -3548,7 +3499,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -3559,7 +3510,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -3570,7 +3521,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>158</v>
       </c>
@@ -3578,7 +3529,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>159</v>
       </c>
@@ -3589,7 +3540,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -3600,7 +3551,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -3611,7 +3562,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -3622,7 +3573,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -3631,7 +3582,7 @@
       </c>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -3642,7 +3593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -3653,7 +3604,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -3664,7 +3615,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -3675,7 +3626,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -3683,7 +3634,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -3694,7 +3645,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -3705,7 +3656,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -3716,7 +3667,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>172</v>
       </c>
@@ -3727,7 +3678,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -3738,7 +3689,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>174</v>
       </c>
@@ -3749,7 +3700,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>175</v>
       </c>
@@ -3760,7 +3711,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>176</v>
       </c>
@@ -3771,7 +3722,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>177</v>
       </c>
@@ -3782,7 +3733,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -3793,7 +3744,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>179</v>
       </c>
@@ -3804,7 +3755,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>180</v>
       </c>
@@ -3815,7 +3766,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -3826,7 +3777,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>182</v>
       </c>
@@ -3837,7 +3788,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -3848,7 +3799,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -3859,7 +3810,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>185</v>
       </c>
@@ -3870,7 +3821,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>186</v>
       </c>
@@ -3881,7 +3832,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -3892,7 +3843,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>188</v>
       </c>
@@ -3903,7 +3854,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>189</v>
       </c>
@@ -3914,7 +3865,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>190</v>
       </c>
@@ -3925,7 +3876,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>191</v>
       </c>
@@ -3936,7 +3887,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -3947,7 +3898,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>193</v>
       </c>
@@ -3958,7 +3909,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>194</v>
       </c>
@@ -3969,7 +3920,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>195</v>
       </c>
@@ -3980,7 +3931,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>196</v>
       </c>
@@ -3991,7 +3942,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>197</v>
       </c>
@@ -4002,7 +3953,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>198</v>
       </c>
@@ -4013,7 +3964,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>199</v>
       </c>
@@ -4024,7 +3975,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>200</v>
       </c>
@@ -4035,7 +3986,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>201</v>
       </c>
@@ -4046,7 +3997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>202</v>
       </c>
@@ -4057,7 +4008,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>203</v>
       </c>
@@ -4068,7 +4019,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>204</v>
       </c>
@@ -4079,7 +4030,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>205</v>
       </c>
@@ -4090,7 +4041,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>206</v>
       </c>
@@ -4101,7 +4052,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>207</v>
       </c>
@@ -4112,7 +4063,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>208</v>
       </c>
@@ -4123,7 +4074,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -4134,7 +4085,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>210</v>
       </c>
@@ -4142,7 +4093,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>211</v>
       </c>
@@ -4153,7 +4104,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>212</v>
       </c>
@@ -4164,7 +4115,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>213</v>
       </c>
@@ -4175,7 +4126,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -4186,7 +4137,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>215</v>
       </c>
@@ -4194,7 +4145,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>216</v>
       </c>
@@ -4205,7 +4156,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>217</v>
       </c>
@@ -4216,7 +4167,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>218</v>
       </c>
@@ -4227,7 +4178,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>219</v>
       </c>
@@ -4238,7 +4189,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>220</v>
       </c>
@@ -4249,7 +4200,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>221</v>
       </c>
@@ -4260,7 +4211,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>222</v>
       </c>
@@ -4271,7 +4222,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>223</v>
       </c>
@@ -4282,7 +4233,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>224</v>
       </c>
@@ -4293,7 +4244,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>225</v>
       </c>
@@ -4304,7 +4255,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>226</v>
       </c>
@@ -4315,7 +4266,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>227</v>
       </c>
@@ -4326,7 +4277,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>228</v>
       </c>
@@ -4337,7 +4288,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>229</v>
       </c>
@@ -4348,7 +4299,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>230</v>
       </c>
@@ -4359,7 +4310,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>231</v>
       </c>
@@ -4370,7 +4321,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>232</v>
       </c>
@@ -4381,7 +4332,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>233</v>
       </c>
@@ -4392,7 +4343,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>234</v>
       </c>
@@ -4401,7 +4352,7 @@
       </c>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>235</v>
       </c>
@@ -4412,7 +4363,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>236</v>
       </c>
@@ -4423,7 +4374,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>237</v>
       </c>
@@ -4434,7 +4385,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>238</v>
       </c>
@@ -4445,7 +4396,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>239</v>
       </c>
@@ -4453,7 +4404,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>240</v>
       </c>
@@ -4461,7 +4412,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>241</v>
       </c>
@@ -4472,7 +4423,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>242</v>
       </c>
@@ -4483,7 +4434,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>243</v>
       </c>
@@ -4491,7 +4442,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>244</v>
       </c>
@@ -4502,7 +4453,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>245</v>
       </c>
@@ -4513,7 +4464,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>246</v>
       </c>
@@ -4524,7 +4475,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>247</v>
       </c>
@@ -4532,7 +4483,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>248</v>
       </c>
@@ -4540,7 +4491,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>249</v>
       </c>
@@ -4551,7 +4502,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>250</v>
       </c>
@@ -4562,7 +4513,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>251</v>
       </c>
@@ -4573,7 +4524,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>252</v>
       </c>
@@ -4584,7 +4535,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>253</v>
       </c>
@@ -4592,7 +4543,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>254</v>
       </c>
@@ -4603,7 +4554,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>255</v>
       </c>
@@ -4611,7 +4562,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>256</v>
       </c>
@@ -4622,7 +4573,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>257</v>
       </c>
@@ -4633,7 +4584,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>258</v>
       </c>
@@ -4644,7 +4595,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>259</v>
       </c>
@@ -4653,7 +4604,7 @@
       </c>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>260</v>
       </c>
@@ -4664,7 +4615,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>261</v>
       </c>
@@ -4675,7 +4626,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>262</v>
       </c>
@@ -4686,7 +4637,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>263</v>
       </c>
@@ -4697,7 +4648,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>264</v>
       </c>
@@ -4708,7 +4659,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>265</v>
       </c>
@@ -4719,7 +4670,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>266</v>
       </c>
@@ -4730,7 +4681,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>267</v>
       </c>
@@ -4741,7 +4692,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>268</v>
       </c>
@@ -4752,7 +4703,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>269</v>
       </c>
@@ -4763,7 +4714,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>270</v>
       </c>
@@ -4771,7 +4722,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>271</v>
       </c>
@@ -4782,7 +4733,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>272</v>
       </c>
@@ -4793,7 +4744,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>273</v>
       </c>
@@ -4804,7 +4755,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>274</v>
       </c>
@@ -4815,7 +4766,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>275</v>
       </c>
@@ -4826,7 +4777,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>276</v>
       </c>
@@ -4837,7 +4788,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>277</v>
       </c>
@@ -4848,7 +4799,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>278</v>
       </c>
@@ -4859,7 +4810,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>279</v>
       </c>
@@ -4870,7 +4821,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>280</v>
       </c>
@@ -4878,7 +4829,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>281</v>
       </c>
@@ -4889,7 +4840,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>282</v>
       </c>
@@ -4900,7 +4851,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>283</v>
       </c>
@@ -4911,7 +4862,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>284</v>
       </c>
@@ -4922,7 +4873,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>285</v>
       </c>
@@ -4930,7 +4881,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>286</v>
       </c>
@@ -4941,7 +4892,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>287</v>
       </c>
@@ -4952,7 +4903,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>288</v>
       </c>
@@ -4963,7 +4914,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>289</v>
       </c>
@@ -4974,7 +4925,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>290</v>
       </c>
@@ -4985,7 +4936,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>291</v>
       </c>
@@ -4996,7 +4947,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>292</v>
       </c>
@@ -5007,7 +4958,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>293</v>
       </c>
@@ -5018,7 +4969,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>294</v>
       </c>
@@ -5029,7 +4980,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>295</v>
       </c>
@@ -5037,7 +4988,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>296</v>
       </c>
@@ -5045,7 +4996,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -5056,7 +5007,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>298</v>
       </c>
@@ -5067,7 +5018,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>299</v>
       </c>
@@ -5075,7 +5026,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>300</v>
       </c>
@@ -5086,7 +5037,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>301</v>
       </c>
@@ -5094,7 +5045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>302</v>
       </c>
@@ -5105,7 +5056,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>303</v>
       </c>
@@ -5116,7 +5067,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>304</v>
       </c>
@@ -5125,7 +5076,7 @@
       </c>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>305</v>
       </c>
@@ -5136,7 +5087,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>306</v>
       </c>
@@ -5147,7 +5098,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>307</v>
       </c>
@@ -5158,7 +5109,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>308</v>
       </c>
@@ -5169,7 +5120,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>309</v>
       </c>
@@ -5180,7 +5131,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>310</v>
       </c>
@@ -5191,7 +5142,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>311</v>
       </c>
@@ -5202,7 +5153,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>312</v>
       </c>
@@ -5213,7 +5164,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>313</v>
       </c>
@@ -5224,7 +5175,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>314</v>
       </c>
@@ -5235,7 +5186,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>315</v>
       </c>
@@ -5246,7 +5197,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>316</v>
       </c>
@@ -5257,7 +5208,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>317</v>
       </c>
@@ -5268,7 +5219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>318</v>
       </c>
@@ -5276,7 +5227,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>319</v>
       </c>
@@ -5287,7 +5238,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>320</v>
       </c>
@@ -5298,7 +5249,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>321</v>
       </c>
@@ -5306,7 +5257,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>322</v>
       </c>
@@ -5317,7 +5268,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>323</v>
       </c>
@@ -5325,7 +5276,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>324</v>
       </c>
@@ -5336,7 +5287,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>325</v>
       </c>
@@ -5347,7 +5298,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>326</v>
       </c>
@@ -5355,7 +5306,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>327</v>
       </c>
@@ -5366,7 +5317,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>328</v>
       </c>
@@ -5377,7 +5328,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>329</v>
       </c>
@@ -5388,7 +5339,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>330</v>
       </c>
@@ -5399,7 +5350,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>331</v>
       </c>
@@ -5410,7 +5361,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>332</v>
       </c>
@@ -5421,7 +5372,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>333</v>
       </c>
@@ -5429,7 +5380,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>334</v>
       </c>
@@ -5440,7 +5391,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>335</v>
       </c>
@@ -5451,7 +5402,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>336</v>
       </c>
@@ -5462,7 +5413,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>337</v>
       </c>
@@ -5473,7 +5424,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>338</v>
       </c>
@@ -5484,7 +5435,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>339</v>
       </c>
@@ -5495,7 +5446,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>340</v>
       </c>
@@ -5506,7 +5457,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>341</v>
       </c>
@@ -5517,7 +5468,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>342</v>
       </c>
@@ -5528,7 +5479,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>343</v>
       </c>
@@ -5539,7 +5490,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>344</v>
       </c>
@@ -5550,7 +5501,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>345</v>
       </c>
@@ -5561,7 +5512,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>346</v>
       </c>
@@ -5572,7 +5523,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>347</v>
       </c>
@@ -5583,7 +5534,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>348</v>
       </c>
@@ -5594,7 +5545,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>349</v>
       </c>
@@ -5605,7 +5556,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>350</v>
       </c>
@@ -5616,7 +5567,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>351</v>
       </c>
@@ -5627,7 +5578,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>352</v>
       </c>
@@ -5638,7 +5589,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>353</v>
       </c>
@@ -5649,7 +5600,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>354</v>
       </c>
@@ -5657,7 +5608,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>355</v>
       </c>
@@ -5668,7 +5619,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>356</v>
       </c>
@@ -5679,7 +5630,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>357</v>
       </c>
@@ -5690,7 +5641,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>358</v>
       </c>
@@ -5698,7 +5649,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>359</v>
       </c>
@@ -5709,7 +5660,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>360</v>
       </c>
@@ -5717,7 +5668,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>361</v>
       </c>
@@ -5728,7 +5679,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>362</v>
       </c>
@@ -5739,7 +5690,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>363</v>
       </c>
@@ -5750,7 +5701,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>364</v>
       </c>
@@ -5761,7 +5712,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>365</v>
       </c>
@@ -5772,7 +5723,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>366</v>
       </c>
@@ -5783,7 +5734,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>367</v>
       </c>
@@ -5794,7 +5745,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>368</v>
       </c>
@@ -5805,7 +5756,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>369</v>
       </c>
@@ -5816,7 +5767,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>370</v>
       </c>
@@ -5827,7 +5778,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>371</v>
       </c>
@@ -5838,7 +5789,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>372</v>
       </c>
@@ -5849,7 +5800,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>373</v>
       </c>
@@ -5860,7 +5811,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>374</v>
       </c>
@@ -5871,7 +5822,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>375</v>
       </c>
@@ -5882,7 +5833,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>376</v>
       </c>
@@ -5893,7 +5844,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>377</v>
       </c>
@@ -5901,7 +5852,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>378</v>
       </c>
@@ -5912,7 +5863,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>379</v>
       </c>
@@ -5923,7 +5874,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>380</v>
       </c>
@@ -5934,7 +5885,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>381</v>
       </c>
@@ -5945,7 +5896,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>382</v>
       </c>
@@ -5956,7 +5907,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>383</v>
       </c>
@@ -5967,7 +5918,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>384</v>
       </c>
@@ -5978,7 +5929,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>385</v>
       </c>
@@ -5989,7 +5940,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>386</v>
       </c>
@@ -6000,7 +5951,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>387</v>
       </c>
@@ -6008,7 +5959,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>388</v>
       </c>
@@ -6019,7 +5970,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>389</v>
       </c>
@@ -6030,7 +5981,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>390</v>
       </c>
@@ -6041,7 +5992,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>391</v>
       </c>
@@ -6052,7 +6003,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>392</v>
       </c>
@@ -6063,7 +6014,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>393</v>
       </c>
@@ -6074,7 +6025,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>394</v>
       </c>
@@ -6085,7 +6036,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>395</v>
       </c>
@@ -6093,7 +6044,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>396</v>
       </c>
@@ -6104,7 +6055,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>397</v>
       </c>
@@ -6115,7 +6066,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>398</v>
       </c>
@@ -6126,7 +6077,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>399</v>
       </c>
@@ -6137,7 +6088,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>400</v>
       </c>
@@ -6148,7 +6099,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>401</v>
       </c>
@@ -6157,7 +6108,7 @@
       </c>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>402</v>
       </c>
@@ -6168,7 +6119,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>403</v>
       </c>
@@ -6179,7 +6130,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>404</v>
       </c>
@@ -6190,7 +6141,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>405</v>
       </c>
@@ -6201,7 +6152,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>406</v>
       </c>
@@ -6209,7 +6160,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>407</v>
       </c>
@@ -6220,7 +6171,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>408</v>
       </c>
@@ -6231,7 +6182,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>409</v>
       </c>
@@ -6242,7 +6193,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>410</v>
       </c>
@@ -6253,7 +6204,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>411</v>
       </c>
@@ -6264,7 +6215,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>412</v>
       </c>
@@ -6275,7 +6226,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>413</v>
       </c>
@@ -6283,7 +6234,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>414</v>
       </c>
@@ -6294,7 +6245,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>415</v>
       </c>
@@ -6302,7 +6253,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>416</v>
       </c>
@@ -6310,7 +6261,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>417</v>
       </c>
@@ -6321,7 +6272,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>418</v>
       </c>
@@ -6329,7 +6280,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>419</v>
       </c>
@@ -6340,7 +6291,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>420</v>
       </c>
@@ -6351,7 +6302,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>421</v>
       </c>
@@ -6362,7 +6313,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>422</v>
       </c>
@@ -6373,7 +6324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>423</v>
       </c>
@@ -6381,7 +6332,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>424</v>
       </c>
@@ -6392,7 +6343,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>425</v>
       </c>
@@ -6403,7 +6354,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>426</v>
       </c>
@@ -6414,7 +6365,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>427</v>
       </c>
@@ -6425,7 +6376,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>428</v>
       </c>
@@ -6436,7 +6387,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>429</v>
       </c>
@@ -6444,7 +6395,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>430</v>
       </c>
@@ -6455,7 +6406,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>431</v>
       </c>
@@ -6466,7 +6417,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>432</v>
       </c>
@@ -6474,7 +6425,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>433</v>
       </c>
@@ -6482,7 +6433,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>434</v>
       </c>
@@ -6493,7 +6444,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>435</v>
       </c>
@@ -6504,7 +6455,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>436</v>
       </c>
@@ -6515,7 +6466,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>437</v>
       </c>
@@ -6523,7 +6474,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>438</v>
       </c>
@@ -6534,7 +6485,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -6545,7 +6496,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>440</v>
       </c>
@@ -6556,7 +6507,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>441</v>
       </c>
@@ -6567,7 +6518,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>442</v>
       </c>
@@ -6582,6 +6533,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>